--- a/src/OHA Test Data Grant_2013_2014_2015_2016_Table.xlsx
+++ b/src/OHA Test Data Grant_2013_2014_2015_2016_Table.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luu/ICS491Lucio/src/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="GrantFactTable" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="884">
   <si>
     <t>Fiscal Year</t>
   </si>
@@ -2654,6 +2667,18 @@
   </si>
   <si>
     <t>The purpose of this project is to provide opportunities to Oahu youth to learn about and experience traditional Hawaiian navigation, and the dynamic and complex cycles of plant based resource management and skilled materials preparation used by ancient navigators to prepare for long distance voyages.</t>
+  </si>
+  <si>
+    <t># Ahahui</t>
+  </si>
+  <si>
+    <t># BOT Initiatives</t>
+  </si>
+  <si>
+    <t># CG</t>
+  </si>
+  <si>
+    <t># Sponsor</t>
   </si>
 </sst>
 </file>
@@ -2776,12 +2801,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2811,12 +2836,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3020,28 +3045,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K575"/>
+  <dimension ref="A1:S575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3075,8 +3102,20 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>880</v>
+      </c>
+      <c r="P1" t="s">
+        <v>881</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>882</v>
+      </c>
+      <c r="R1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -3110,8 +3149,28 @@
       <c r="K2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>COUNTIF(B2:B575,"Ahahui")</f>
+        <v>122</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF(B2:B575,"BOT Initiative")</f>
+        <v>53</v>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF(B2:B575,"Community Grant")</f>
+        <v>124</v>
+      </c>
+      <c r="R2">
+        <f>COUNTIF(B2:B575,"Sponsorship")</f>
+        <v>275</v>
+      </c>
+      <c r="S2">
+        <f>SUM(O2:R2)</f>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2014</v>
       </c>
@@ -3146,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -3181,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3216,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3251,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -3286,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -3321,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -3356,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -3391,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014</v>
       </c>
@@ -3426,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -3461,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2013</v>
       </c>
@@ -3496,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -3531,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -3566,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -3601,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -3636,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -3671,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2015</v>
       </c>
@@ -3706,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -3741,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -3776,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -3811,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -3846,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2014</v>
       </c>
@@ -3881,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -3916,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -3951,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -3986,7 +4045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -4021,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2015</v>
       </c>
@@ -4056,7 +4115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -4091,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -4126,7 +4185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -4161,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2015</v>
       </c>
@@ -4196,7 +4255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -4231,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -4266,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -4301,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2015</v>
       </c>
@@ -4336,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -4371,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -4406,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -4441,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2013</v>
       </c>
@@ -4476,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2013</v>
       </c>
@@ -4511,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -4546,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2013</v>
       </c>
@@ -4581,7 +4640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2015</v>
       </c>
@@ -4616,7 +4675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -4651,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2015</v>
       </c>
@@ -4686,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -4721,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -4756,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -4791,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -4826,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2013</v>
       </c>
@@ -4861,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -4896,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2015</v>
       </c>
@@ -4931,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2013</v>
       </c>
@@ -4966,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2014</v>
       </c>
@@ -5001,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2013</v>
       </c>
@@ -5036,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -5071,7 +5130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2014</v>
       </c>
@@ -5106,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2015</v>
       </c>
@@ -5141,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2015</v>
       </c>
@@ -5176,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -5211,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2013</v>
       </c>
@@ -5246,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -5281,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2013</v>
       </c>
@@ -5316,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -5351,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -5386,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -5421,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -5456,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2014</v>
       </c>
@@ -5491,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2014</v>
       </c>
@@ -5526,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -5561,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2013</v>
       </c>
@@ -5596,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2014</v>
       </c>
@@ -5631,7 +5690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2013</v>
       </c>
@@ -5666,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -5701,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -5736,7 +5795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2014</v>
       </c>
@@ -5771,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2014</v>
       </c>
@@ -5806,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2014</v>
       </c>
@@ -5841,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2014</v>
       </c>
@@ -5876,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2013</v>
       </c>
@@ -5911,7 +5970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>2013</v>
       </c>
@@ -5946,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2015</v>
       </c>
@@ -5981,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2013</v>
       </c>
@@ -6016,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2014</v>
       </c>
@@ -6051,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2013</v>
       </c>
@@ -6086,7 +6145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2013</v>
       </c>
@@ -6121,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2013</v>
       </c>
@@ -6156,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2013</v>
       </c>
@@ -6191,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2013</v>
       </c>
@@ -6226,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2015</v>
       </c>
@@ -6261,7 +6320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2013</v>
       </c>
@@ -6296,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2014</v>
       </c>
@@ -6331,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2014</v>
       </c>
@@ -6366,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2013</v>
       </c>
@@ -6401,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2014</v>
       </c>
@@ -6436,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2015</v>
       </c>
@@ -6471,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2013</v>
       </c>
@@ -6506,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2013</v>
       </c>
@@ -6541,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2014</v>
       </c>
@@ -6576,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2015</v>
       </c>
@@ -6611,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2013</v>
       </c>
@@ -6646,7 +6705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2014</v>
       </c>
@@ -6681,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2015</v>
       </c>
@@ -6716,7 +6775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2015</v>
       </c>
@@ -6751,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2014</v>
       </c>
@@ -6786,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2014</v>
       </c>
@@ -6821,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2015</v>
       </c>
@@ -6856,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2013</v>
       </c>
@@ -6891,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2013</v>
       </c>
@@ -6926,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2014</v>
       </c>
@@ -6961,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2014</v>
       </c>
@@ -6996,7 +7055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2014</v>
       </c>
@@ -7031,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2015</v>
       </c>
@@ -7066,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2015</v>
       </c>
@@ -7101,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2015</v>
       </c>
@@ -7136,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2014</v>
       </c>
@@ -7171,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2015</v>
       </c>
@@ -7206,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2015</v>
       </c>
@@ -7241,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2013</v>
       </c>
@@ -7276,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2013</v>
       </c>
@@ -7311,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -7346,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2014</v>
       </c>
@@ -7381,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2014</v>
       </c>
@@ -7416,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2015</v>
       </c>
@@ -7451,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2013</v>
       </c>
@@ -7486,7 +7545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2014</v>
       </c>
@@ -7521,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2015</v>
       </c>
@@ -7556,7 +7615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2015</v>
       </c>
@@ -7591,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2013</v>
       </c>
@@ -7626,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2013</v>
       </c>
@@ -7661,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2014</v>
       </c>
@@ -7696,7 +7755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2014</v>
       </c>
@@ -7731,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2013</v>
       </c>
@@ -7766,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2013</v>
       </c>
@@ -7801,7 +7860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2015</v>
       </c>
@@ -7836,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2014</v>
       </c>
@@ -7871,7 +7930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2014</v>
       </c>
@@ -7906,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2015</v>
       </c>
@@ -7941,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2013</v>
       </c>
@@ -7976,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2015</v>
       </c>
@@ -8011,7 +8070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2013</v>
       </c>
@@ -8046,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2015</v>
       </c>
@@ -8081,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2015</v>
       </c>
@@ -8116,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2013</v>
       </c>
@@ -8151,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2013</v>
       </c>
@@ -8186,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2013</v>
       </c>
@@ -8221,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2013</v>
       </c>
@@ -8256,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2015</v>
       </c>
@@ -8291,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2014</v>
       </c>
@@ -8326,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2013</v>
       </c>
@@ -8361,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2013</v>
       </c>
@@ -8396,7 +8455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2013</v>
       </c>
@@ -8431,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2014</v>
       </c>
@@ -8466,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2014</v>
       </c>
@@ -8501,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2014</v>
       </c>
@@ -8536,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2014</v>
       </c>
@@ -8571,7 +8630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2014</v>
       </c>
@@ -8606,7 +8665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2014</v>
       </c>
@@ -8641,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2014</v>
       </c>
@@ -8676,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2015</v>
       </c>
@@ -8711,7 +8770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2015</v>
       </c>
@@ -8746,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2015</v>
       </c>
@@ -8781,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2015</v>
       </c>
@@ -8816,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2015</v>
       </c>
@@ -8851,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2013</v>
       </c>
@@ -8886,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2013</v>
       </c>
@@ -8921,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2015</v>
       </c>
@@ -8956,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2015</v>
       </c>
@@ -8991,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2014</v>
       </c>
@@ -9026,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2014</v>
       </c>
@@ -9061,7 +9120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2013</v>
       </c>
@@ -9096,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2015</v>
       </c>
@@ -9131,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2013</v>
       </c>
@@ -9166,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>2014</v>
       </c>
@@ -9201,7 +9260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2015</v>
       </c>
@@ -9236,7 +9295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>2015</v>
       </c>
@@ -9271,7 +9330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2013</v>
       </c>
@@ -9306,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>2014</v>
       </c>
@@ -9341,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2013</v>
       </c>
@@ -9376,7 +9435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2013</v>
       </c>
@@ -9411,7 +9470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2015</v>
       </c>
@@ -9446,7 +9505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2014</v>
       </c>
@@ -9481,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2013</v>
       </c>
@@ -9516,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2013</v>
       </c>
@@ -9551,7 +9610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2014</v>
       </c>
@@ -9586,7 +9645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2014</v>
       </c>
@@ -9621,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2013</v>
       </c>
@@ -9656,7 +9715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2015</v>
       </c>
@@ -9691,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>2013</v>
       </c>
@@ -9726,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2013</v>
       </c>
@@ -9761,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>2013</v>
       </c>
@@ -9796,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2013</v>
       </c>
@@ -9831,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>2013</v>
       </c>
@@ -9866,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2013</v>
       </c>
@@ -9901,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2013</v>
       </c>
@@ -9936,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2013</v>
       </c>
@@ -9971,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2013</v>
       </c>
@@ -10006,7 +10065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>2013</v>
       </c>
@@ -10041,7 +10100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2014</v>
       </c>
@@ -10076,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2014</v>
       </c>
@@ -10111,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2013</v>
       </c>
@@ -10146,7 +10205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2013</v>
       </c>
@@ -10181,7 +10240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2013</v>
       </c>
@@ -10216,7 +10275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2014</v>
       </c>
@@ -10251,7 +10310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2014</v>
       </c>
@@ -10286,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2015</v>
       </c>
@@ -10321,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2013</v>
       </c>
@@ -10356,7 +10415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2014</v>
       </c>
@@ -10391,7 +10450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2013</v>
       </c>
@@ -10426,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2014</v>
       </c>
@@ -10461,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2014</v>
       </c>
@@ -10496,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2014</v>
       </c>
@@ -10531,7 +10590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2015</v>
       </c>
@@ -10566,7 +10625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2014</v>
       </c>
@@ -10601,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2014</v>
       </c>
@@ -10636,7 +10695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2014</v>
       </c>
@@ -10671,7 +10730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2014</v>
       </c>
@@ -10706,7 +10765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2015</v>
       </c>
@@ -10741,7 +10800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2013</v>
       </c>
@@ -10776,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2013</v>
       </c>
@@ -10811,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2014</v>
       </c>
@@ -10846,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2015</v>
       </c>
@@ -10881,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2013</v>
       </c>
@@ -10916,7 +10975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2013</v>
       </c>
@@ -10951,7 +11010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2014</v>
       </c>
@@ -10986,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2013</v>
       </c>
@@ -11021,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2015</v>
       </c>
@@ -11056,7 +11115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2014</v>
       </c>
@@ -11091,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2014</v>
       </c>
@@ -11126,7 +11185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2014</v>
       </c>
@@ -11161,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2015</v>
       </c>
@@ -11196,7 +11255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2013</v>
       </c>
@@ -11231,7 +11290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2013</v>
       </c>
@@ -11266,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2015</v>
       </c>
@@ -11301,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2013</v>
       </c>
@@ -11336,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2013</v>
       </c>
@@ -11371,7 +11430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2015</v>
       </c>
@@ -11406,7 +11465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2013</v>
       </c>
@@ -11441,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2015</v>
       </c>
@@ -11476,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2015</v>
       </c>
@@ -11511,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2013</v>
       </c>
@@ -11546,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2013</v>
       </c>
@@ -11581,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2014</v>
       </c>
@@ -11616,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2015</v>
       </c>
@@ -11651,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2013</v>
       </c>
@@ -11686,7 +11745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2014</v>
       </c>
@@ -11721,7 +11780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2013</v>
       </c>
@@ -11756,7 +11815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2015</v>
       </c>
@@ -11791,7 +11850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2015</v>
       </c>
@@ -11826,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2013</v>
       </c>
@@ -11861,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2014</v>
       </c>
@@ -11896,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2014</v>
       </c>
@@ -11931,7 +11990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2013</v>
       </c>
@@ -11966,7 +12025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2015</v>
       </c>
@@ -12001,7 +12060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2015</v>
       </c>
@@ -12036,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2013</v>
       </c>
@@ -12071,7 +12130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2013</v>
       </c>
@@ -12106,7 +12165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2014</v>
       </c>
@@ -12141,7 +12200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2013</v>
       </c>
@@ -12176,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2013</v>
       </c>
@@ -12211,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2013</v>
       </c>
@@ -12246,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2014</v>
       </c>
@@ -12281,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2013</v>
       </c>
@@ -12316,7 +12375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2014</v>
       </c>
@@ -12351,7 +12410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2013</v>
       </c>
@@ -12386,7 +12445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2014</v>
       </c>
@@ -12421,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2014</v>
       </c>
@@ -12456,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2013</v>
       </c>
@@ -12491,7 +12550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2014</v>
       </c>
@@ -12526,7 +12585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2015</v>
       </c>
@@ -12561,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2015</v>
       </c>
@@ -12596,7 +12655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2015</v>
       </c>
@@ -12631,7 +12690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2015</v>
       </c>
@@ -12666,7 +12725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2013</v>
       </c>
@@ -12701,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2014</v>
       </c>
@@ -12736,7 +12795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2015</v>
       </c>
@@ -12771,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2013</v>
       </c>
@@ -12806,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2013</v>
       </c>
@@ -12841,7 +12900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2013</v>
       </c>
@@ -12876,7 +12935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2015</v>
       </c>
@@ -12911,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2013</v>
       </c>
@@ -12946,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2015</v>
       </c>
@@ -12981,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2015</v>
       </c>
@@ -13016,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2014</v>
       </c>
@@ -13051,7 +13110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2013</v>
       </c>
@@ -13086,7 +13145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>2013</v>
       </c>
@@ -13121,7 +13180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>2013</v>
       </c>
@@ -13156,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2013</v>
       </c>
@@ -13191,7 +13250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2014</v>
       </c>
@@ -13226,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2014</v>
       </c>
@@ -13261,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2014</v>
       </c>
@@ -13296,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2014</v>
       </c>
@@ -13331,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2014</v>
       </c>
@@ -13366,7 +13425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2015</v>
       </c>
@@ -13401,7 +13460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2015</v>
       </c>
@@ -13436,7 +13495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2015</v>
       </c>
@@ -13471,7 +13530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2014</v>
       </c>
@@ -13506,7 +13565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2014</v>
       </c>
@@ -13541,7 +13600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2015</v>
       </c>
@@ -13576,7 +13635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2015</v>
       </c>
@@ -13611,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2013</v>
       </c>
@@ -13646,7 +13705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2013</v>
       </c>
@@ -13681,7 +13740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2014</v>
       </c>
@@ -13716,7 +13775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2013</v>
       </c>
@@ -13751,7 +13810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2013</v>
       </c>
@@ -13786,7 +13845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2014</v>
       </c>
@@ -13821,7 +13880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2015</v>
       </c>
@@ -13856,7 +13915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2015</v>
       </c>
@@ -13891,7 +13950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2014</v>
       </c>
@@ -13926,7 +13985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2014</v>
       </c>
@@ -13961,7 +14020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2015</v>
       </c>
@@ -13996,7 +14055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2014</v>
       </c>
@@ -14031,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2013</v>
       </c>
@@ -14066,7 +14125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2013</v>
       </c>
@@ -14101,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2013</v>
       </c>
@@ -14136,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2013</v>
       </c>
@@ -14171,7 +14230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2013</v>
       </c>
@@ -14206,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2015</v>
       </c>
@@ -14241,7 +14300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2013</v>
       </c>
@@ -14276,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2014</v>
       </c>
@@ -14311,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2015</v>
       </c>
@@ -14346,7 +14405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2013</v>
       </c>
@@ -14381,7 +14440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2013</v>
       </c>
@@ -14416,7 +14475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2013</v>
       </c>
@@ -14451,7 +14510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2014</v>
       </c>
@@ -14486,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2015</v>
       </c>
@@ -14521,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2015</v>
       </c>
@@ -14556,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2014</v>
       </c>
@@ -14591,7 +14650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2015</v>
       </c>
@@ -14626,7 +14685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2015</v>
       </c>
@@ -14661,7 +14720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2013</v>
       </c>
@@ -14696,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2013</v>
       </c>
@@ -14731,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2014</v>
       </c>
@@ -14766,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2013</v>
       </c>
@@ -14801,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2013</v>
       </c>
@@ -14836,7 +14895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2014</v>
       </c>
@@ -14871,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2015</v>
       </c>
@@ -14906,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>2014</v>
       </c>
@@ -14941,7 +15000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2013</v>
       </c>
@@ -14976,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2013</v>
       </c>
@@ -15011,7 +15070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2014</v>
       </c>
@@ -15046,7 +15105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2015</v>
       </c>
@@ -15081,7 +15140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>2013</v>
       </c>
@@ -15116,7 +15175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>2013</v>
       </c>
@@ -15151,7 +15210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>2013</v>
       </c>
@@ -15186,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>2014</v>
       </c>
@@ -15221,7 +15280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>2014</v>
       </c>
@@ -15256,7 +15315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2014</v>
       </c>
@@ -15291,7 +15350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2014</v>
       </c>
@@ -15326,7 +15385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2015</v>
       </c>
@@ -15361,7 +15420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2015</v>
       </c>
@@ -15396,7 +15455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2013</v>
       </c>
@@ -15431,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2015</v>
       </c>
@@ -15466,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2015</v>
       </c>
@@ -15501,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2014</v>
       </c>
@@ -15536,7 +15595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2014</v>
       </c>
@@ -15571,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2014</v>
       </c>
@@ -15606,7 +15665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2015</v>
       </c>
@@ -15641,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2014</v>
       </c>
@@ -15676,7 +15735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2015</v>
       </c>
@@ -15711,7 +15770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2014</v>
       </c>
@@ -15746,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2015</v>
       </c>
@@ -15781,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2015</v>
       </c>
@@ -15816,7 +15875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2013</v>
       </c>
@@ -15851,7 +15910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2014</v>
       </c>
@@ -15886,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2015</v>
       </c>
@@ -15921,7 +15980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2014</v>
       </c>
@@ -15956,7 +16015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2015</v>
       </c>
@@ -15991,7 +16050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2013</v>
       </c>
@@ -16026,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>2014</v>
       </c>
@@ -16061,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>2014</v>
       </c>
@@ -16096,7 +16155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>2014</v>
       </c>
@@ -16131,7 +16190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2015</v>
       </c>
@@ -16166,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2013</v>
       </c>
@@ -16201,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2014</v>
       </c>
@@ -16236,7 +16295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2015</v>
       </c>
@@ -16271,7 +16330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2013</v>
       </c>
@@ -16306,7 +16365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2015</v>
       </c>
@@ -16341,7 +16400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2014</v>
       </c>
@@ -16376,7 +16435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>2015</v>
       </c>
@@ -16411,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>2014</v>
       </c>
@@ -16446,7 +16505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>2015</v>
       </c>
@@ -16481,7 +16540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>2013</v>
       </c>
@@ -16516,7 +16575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2013</v>
       </c>
@@ -16551,7 +16610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2013</v>
       </c>
@@ -16586,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2014</v>
       </c>
@@ -16621,7 +16680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2014</v>
       </c>
@@ -16656,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2015</v>
       </c>
@@ -16691,7 +16750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2013</v>
       </c>
@@ -16726,7 +16785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2014</v>
       </c>
@@ -16761,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2015</v>
       </c>
@@ -16796,7 +16855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2015</v>
       </c>
@@ -16831,7 +16890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2013</v>
       </c>
@@ -16866,7 +16925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2014</v>
       </c>
@@ -16901,7 +16960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2015</v>
       </c>
@@ -16936,7 +16995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2013</v>
       </c>
@@ -16971,7 +17030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2013</v>
       </c>
@@ -17006,7 +17065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2014</v>
       </c>
@@ -17041,7 +17100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2013</v>
       </c>
@@ -17076,7 +17135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2015</v>
       </c>
@@ -17111,7 +17170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2015</v>
       </c>
@@ -17146,7 +17205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2013</v>
       </c>
@@ -17181,7 +17240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2013</v>
       </c>
@@ -17216,7 +17275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2015</v>
       </c>
@@ -17251,7 +17310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2013</v>
       </c>
@@ -17286,7 +17345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2014</v>
       </c>
@@ -17321,7 +17380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2015</v>
       </c>
@@ -17356,7 +17415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2015</v>
       </c>
@@ -17391,7 +17450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2014</v>
       </c>
@@ -17426,7 +17485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2015</v>
       </c>
@@ -17461,7 +17520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2014</v>
       </c>
@@ -17496,7 +17555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2015</v>
       </c>
@@ -17531,7 +17590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2014</v>
       </c>
@@ -17566,7 +17625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2015</v>
       </c>
@@ -17601,7 +17660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2015</v>
       </c>
@@ -17636,7 +17695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2014</v>
       </c>
@@ -17671,7 +17730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2014</v>
       </c>
@@ -17706,7 +17765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2015</v>
       </c>
@@ -17741,7 +17800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2014</v>
       </c>
@@ -17776,7 +17835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2015</v>
       </c>
@@ -17811,7 +17870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2014</v>
       </c>
@@ -17846,7 +17905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2015</v>
       </c>
@@ -17881,7 +17940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2014</v>
       </c>
@@ -17916,7 +17975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2015</v>
       </c>
@@ -17951,7 +18010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2014</v>
       </c>
@@ -17986,7 +18045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2014</v>
       </c>
@@ -18021,7 +18080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2015</v>
       </c>
@@ -18056,7 +18115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2015</v>
       </c>
@@ -18091,7 +18150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2014</v>
       </c>
@@ -18126,7 +18185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2015</v>
       </c>
@@ -18161,7 +18220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2014</v>
       </c>
@@ -18196,7 +18255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2015</v>
       </c>
@@ -18231,7 +18290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2015</v>
       </c>
@@ -18266,7 +18325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2015</v>
       </c>
@@ -18301,7 +18360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2015</v>
       </c>
@@ -18336,7 +18395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2014</v>
       </c>
@@ -18371,7 +18430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2013</v>
       </c>
@@ -18406,7 +18465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2015</v>
       </c>
@@ -18441,7 +18500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2015</v>
       </c>
@@ -18476,7 +18535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2015</v>
       </c>
@@ -18511,7 +18570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2015</v>
       </c>
@@ -18546,7 +18605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2015</v>
       </c>
@@ -18581,7 +18640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2015</v>
       </c>
@@ -18616,7 +18675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2016</v>
       </c>
@@ -18651,7 +18710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2016</v>
       </c>
@@ -18686,7 +18745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2016</v>
       </c>
@@ -18721,7 +18780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>2016</v>
       </c>
@@ -18756,7 +18815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>2016</v>
       </c>
@@ -18791,7 +18850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2016</v>
       </c>
@@ -18826,7 +18885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2016</v>
       </c>
@@ -18861,7 +18920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2016</v>
       </c>
@@ -18896,7 +18955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2016</v>
       </c>
@@ -18931,7 +18990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2016</v>
       </c>
@@ -18966,7 +19025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2016</v>
       </c>
@@ -19001,7 +19060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2016</v>
       </c>
@@ -19036,7 +19095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2016</v>
       </c>
@@ -19071,7 +19130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2016</v>
       </c>
@@ -19106,7 +19165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2016</v>
       </c>
@@ -19141,7 +19200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>2016</v>
       </c>
@@ -19176,7 +19235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>2016</v>
       </c>
@@ -19211,7 +19270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2016</v>
       </c>
@@ -19246,7 +19305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2016</v>
       </c>
@@ -19281,7 +19340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2016</v>
       </c>
@@ -19316,7 +19375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2016</v>
       </c>
@@ -19351,7 +19410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2016</v>
       </c>
@@ -19386,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>2016</v>
       </c>
@@ -19421,7 +19480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>2016</v>
       </c>
@@ -19456,7 +19515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2016</v>
       </c>
@@ -19491,7 +19550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2016</v>
       </c>
@@ -19526,7 +19585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2016</v>
       </c>
@@ -19561,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>2016</v>
       </c>
@@ -19596,7 +19655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>2016</v>
       </c>
@@ -19631,7 +19690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2016</v>
       </c>
@@ -19666,7 +19725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2016</v>
       </c>
@@ -19701,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2016</v>
       </c>
@@ -19736,7 +19795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2016</v>
       </c>
@@ -19771,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2016</v>
       </c>
@@ -19806,7 +19865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2016</v>
       </c>
@@ -19841,7 +19900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2016</v>
       </c>
@@ -19876,7 +19935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2016</v>
       </c>
@@ -19911,7 +19970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2016</v>
       </c>
@@ -19946,7 +20005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2016</v>
       </c>
@@ -19981,7 +20040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2016</v>
       </c>
@@ -20016,7 +20075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2016</v>
       </c>
@@ -20051,7 +20110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2016</v>
       </c>
@@ -20086,7 +20145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2016</v>
       </c>
@@ -20121,7 +20180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2016</v>
       </c>
@@ -20156,7 +20215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2016</v>
       </c>
@@ -20191,7 +20250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2016</v>
       </c>
@@ -20226,7 +20285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2016</v>
       </c>
@@ -20261,7 +20320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2016</v>
       </c>
@@ -20296,7 +20355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>2016</v>
       </c>
@@ -20331,7 +20390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>2016</v>
       </c>
@@ -20366,7 +20425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>2016</v>
       </c>
@@ -20401,7 +20460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2016</v>
       </c>
@@ -20436,7 +20495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>2016</v>
       </c>
@@ -20471,7 +20530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>2016</v>
       </c>
@@ -20506,7 +20565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2016</v>
       </c>
@@ -20541,7 +20600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2016</v>
       </c>
@@ -20576,7 +20635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2016</v>
       </c>
@@ -20611,7 +20670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2016</v>
       </c>
@@ -20646,7 +20705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2016</v>
       </c>
@@ -20681,7 +20740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2016</v>
       </c>
@@ -20716,7 +20775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2016</v>
       </c>
@@ -20751,7 +20810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2016</v>
       </c>
@@ -20786,7 +20845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>2016</v>
       </c>
@@ -20821,7 +20880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>2016</v>
       </c>
@@ -20856,7 +20915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>2016</v>
       </c>
@@ -20891,7 +20950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>2016</v>
       </c>
@@ -20926,7 +20985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>2016</v>
       </c>
@@ -20961,7 +21020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2016</v>
       </c>
@@ -20996,7 +21055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2016</v>
       </c>
@@ -21031,7 +21090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>2016</v>
       </c>
@@ -21066,7 +21125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2016</v>
       </c>
@@ -21101,7 +21160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2016</v>
       </c>
@@ -21136,7 +21195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>2016</v>
       </c>
@@ -21171,7 +21230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>2016</v>
       </c>
@@ -21206,7 +21265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>2016</v>
       </c>
@@ -21241,7 +21300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>2016</v>
       </c>
@@ -21276,7 +21335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2016</v>
       </c>
@@ -21311,7 +21370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2016</v>
       </c>
@@ -21346,7 +21405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2016</v>
       </c>
@@ -21381,7 +21440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2016</v>
       </c>
@@ -21416,7 +21475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>2016</v>
       </c>
@@ -21451,7 +21510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2016</v>
       </c>
@@ -21486,7 +21545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2016</v>
       </c>
@@ -21521,7 +21580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2016</v>
       </c>
@@ -21556,7 +21615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2016</v>
       </c>
@@ -21591,7 +21650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2016</v>
       </c>
@@ -21626,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2016</v>
       </c>
@@ -21661,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2016</v>
       </c>
@@ -21696,7 +21755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2016</v>
       </c>
@@ -21731,7 +21790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2016</v>
       </c>
@@ -21766,7 +21825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2016</v>
       </c>
@@ -21801,7 +21860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2016</v>
       </c>
@@ -21836,7 +21895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2016</v>
       </c>
@@ -21871,7 +21930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2016</v>
       </c>
@@ -21906,7 +21965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2016</v>
       </c>
@@ -21941,7 +22000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2016</v>
       </c>
@@ -21976,7 +22035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2016</v>
       </c>
@@ -22011,7 +22070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2016</v>
       </c>
@@ -22046,7 +22105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2016</v>
       </c>
@@ -22081,7 +22140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2016</v>
       </c>
@@ -22116,7 +22175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>2016</v>
       </c>
@@ -22151,7 +22210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>2016</v>
       </c>
@@ -22186,7 +22245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>2016</v>
       </c>
@@ -22221,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>2016</v>
       </c>
@@ -22256,7 +22315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>2016</v>
       </c>
@@ -22291,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>2016</v>
       </c>
@@ -22326,7 +22385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>2016</v>
       </c>
@@ -22361,7 +22420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>2016</v>
       </c>
@@ -22396,7 +22455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>2016</v>
       </c>
@@ -22431,7 +22490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>2016</v>
       </c>
@@ -22466,7 +22525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>2016</v>
       </c>
@@ -22501,7 +22560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>2016</v>
       </c>
@@ -22536,7 +22595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2016</v>
       </c>
@@ -22571,7 +22630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>2016</v>
       </c>
@@ -22606,7 +22665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>2016</v>
       </c>
@@ -22641,7 +22700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2016</v>
       </c>
@@ -22676,7 +22735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2016</v>
       </c>
@@ -22711,7 +22770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>2016</v>
       </c>
@@ -22746,7 +22805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2016</v>
       </c>
@@ -22781,7 +22840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2016</v>
       </c>
@@ -22816,7 +22875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>2016</v>
       </c>
@@ -22851,7 +22910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>2016</v>
       </c>
@@ -22886,7 +22945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>2016</v>
       </c>
@@ -22921,7 +22980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>2016</v>
       </c>
@@ -22956,7 +23015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>2016</v>
       </c>
@@ -22991,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>2016</v>
       </c>
@@ -23026,7 +23085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>2016</v>
       </c>
@@ -23061,7 +23120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>2016</v>
       </c>
@@ -23096,7 +23155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>2016</v>
       </c>
@@ -23131,7 +23190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>2016</v>
       </c>
@@ -23172,148 +23231,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009145022E56465F429F8689569E27A39F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74b456ae7da77c10356fb26844111443">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6cf98a53-e178-4eca-a42f-16904e97371a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6a378f82e00518c2e16f765c7a82fea" ns2:_="">
-    <xsd:import namespace="6cf98a53-e178-4eca-a42f-16904e97371a"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:_dlc_DocId" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:_dlc_DocIdPersistId" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6cf98a53-e178-4eca-a42f-16904e97371a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_dlc_DocId" ma:index="8" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="9" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="10" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23463,43 +23383,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7BC23CF-A0D8-42B3-ACAC-C2A5B1FEDFAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6cf98a53-e178-4eca-a42f-16904e97371a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9314C18-11A0-404D-9821-52ADC7320142}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385F67DB-FDE5-46BF-8928-0AD7A1F714A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7786CD68-9141-4B23-BB06-4FFFD6C99725}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6cf98a53-e178-4eca-a42f-16904e97371a"/>
@@ -23513,4 +23397,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9314C18-11A0-404D-9821-52ADC7320142}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3baa3fe4-e062-4580-9ff8-67986f948500"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{385F67DB-FDE5-46BF-8928-0AD7A1F714A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>